--- a/Traduzido/PTBR/Lang/PTBR/Game/Word.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Word.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB73677-3D2F-4F86-B4B6-43E1407434FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85116361-96EE-421D-893D-91F7FCEE4B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="1873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="1874">
   <si>
     <t>id</t>
   </si>
@@ -5655,6 +5655,9 @@
   </si>
   <si>
     <t>養殖所, 繁殖所</t>
+  </si>
+  <si>
+    <t>Minha Mãezinha</t>
   </si>
 </sst>
 </file>
@@ -6035,8 +6038,8 @@
   <dimension ref="A1:E486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="2" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C384" sqref="C384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12548,7 +12551,7 @@
         <v>1288</v>
       </c>
       <c r="C384" t="s">
-        <v>1637</v>
+        <v>1873</v>
       </c>
       <c r="E384" t="s">
         <v>995</v>
